--- a/biology/Médecine/Inotropisme/Inotropisme.xlsx
+++ b/biology/Médecine/Inotropisme/Inotropisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inotropisme (du grec ancien ἴς, ís, ἰνός, ínos : « tendon, fibre des muscles » et τρόπος tropos : tourner, direction ) cardiaque désigne la contractilité myocardique, c'est-à-dire la capacité des cellules musculaires myocardiques à se contracter en réponse à un potentiel d'action. L'inotropisme est sous influence directe du système nerveux autonome.
 </t>
@@ -511,7 +523,9 @@
           <t>Médicaments inotropes positifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils agissent :
 sur le système nerveux sympathique comme la dopamine, l'adrénaline, la noradrénaline, la dobutamine et/ou sont des sympathicomimétiques comme l'amphétamine, la cathinone, le bupropion, ou le méthyphenidate ;
@@ -548,7 +562,9 @@
           <t>Médicaments inotropes négatifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'inverse, le système nerveux parasympathique (neurotransmetteur = acétylcholine) et les bêta-bloquants ont un effet inotrope négatif, c'est-à-dire provoquent une diminution de la contractilité myocardique.
 </t>
